--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>Nombre</t>
   </si>
@@ -102,6 +102,144 @@
   </si>
   <si>
     <t>Deysi</t>
+  </si>
+  <si>
+    <t>Jmoran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jmorán </t>
+  </si>
+  <si>
+    <t>https://www.dafont.com/es/hestina.font?text=Jmor%E1n&amp;psize=l&amp;back=theme</t>
+  </si>
+  <si>
+    <t>corazon</t>
+  </si>
+  <si>
+    <t>José Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amaveth </t>
+  </si>
+  <si>
+    <t>Amaveth</t>
+  </si>
+  <si>
+    <t>pagado</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>https://www.dafont.com/es/miss-rhinetta.font?text=Orquidea&amp;psize=l</t>
+  </si>
+  <si>
+    <t>Orquidea</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Marla de jaen</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
+    <t>naranja</t>
+  </si>
+  <si>
+    <t>Shelsy</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Iris de Meis</t>
+  </si>
+  <si>
+    <t>corazoncito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azul ozcuro </t>
+  </si>
+  <si>
+    <t>Izmeth</t>
+  </si>
+  <si>
+    <t>Izmeth ruiz</t>
+  </si>
+  <si>
+    <t>https://www.dafont.com/es/srabi-script.font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piña </t>
+  </si>
+  <si>
+    <t>kathialice</t>
+  </si>
+  <si>
+    <t>https://www.dafont.com/es/lemon-brush.font</t>
+  </si>
+  <si>
+    <t>kathy</t>
+  </si>
+  <si>
+    <t>Mireya bernal</t>
+  </si>
+  <si>
+    <t>https://www.dafont.com/es/yessy.font</t>
+  </si>
+  <si>
+    <t>morado</t>
+  </si>
+  <si>
+    <t>fucia</t>
+  </si>
+  <si>
+    <t>flor</t>
+  </si>
+  <si>
+    <t>https://www.dafont.com/stay-wildy.font</t>
+  </si>
+  <si>
+    <t>Jey</t>
+  </si>
+  <si>
+    <t>Milagros</t>
+  </si>
+  <si>
+    <t>https://www.dafont.com/es/butterfly-heaven.font</t>
+  </si>
+  <si>
+    <t>letra C de mariposa</t>
+  </si>
+  <si>
+    <t>chica</t>
+  </si>
+  <si>
+    <t>plateado</t>
+  </si>
+  <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>dideño</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>done 2</t>
+  </si>
+  <si>
+    <t>https://www.dafont.com/es/great-fighter.font</t>
+  </si>
+  <si>
+    <t>https://www.dafont.com/es/autery.font?text=Ixchell&amp;psize=l&amp;back=theme</t>
+  </si>
+  <si>
+    <t>done2</t>
   </si>
 </sst>
 </file>
@@ -125,9 +263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1A1A1A"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -153,11 +290,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -165,8 +306,36 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -179,16 +348,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla24" displayName="Tabla24" ref="A1:G7" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:G7"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla24" displayName="Tabla24" ref="A1:I20" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:I20"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Nombre" dataCellStyle="Normal"/>
     <tableColumn id="2" name="Sticker" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Letra" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="dideño" dataCellStyle="Hipervínculo"/>
     <tableColumn id="4" name="width " dataCellStyle="Normal"/>
     <tableColumn id="5" name="height" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Color" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Columna1" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Columna2" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -457,20 +628,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,58 +653,76 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -542,20 +732,24 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -565,20 +759,24 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -588,47 +786,382 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C16" r:id="rId6"/>
+    <hyperlink ref="C17" r:id="rId7"/>
+    <hyperlink ref="C19" r:id="rId8"/>
+    <hyperlink ref="C18" r:id="rId9"/>
+    <hyperlink ref="C20" r:id="rId10"/>
+    <hyperlink ref="C2" r:id="rId11"/>
+    <hyperlink ref="C3" r:id="rId12"/>
+    <hyperlink ref="C7" r:id="rId13"/>
+    <hyperlink ref="C14" r:id="rId14"/>
+    <hyperlink ref="E3" r:id="rId15"/>
+    <hyperlink ref="C9" r:id="rId16"/>
+    <hyperlink ref="C10" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
   <si>
     <t>Nombre</t>
   </si>
@@ -240,6 +241,33 @@
   </si>
   <si>
     <t>done2</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>https://www.dafont.com/es/delighter-script.font?text=Evelyn</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Evelyn Diaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen </t>
+  </si>
+  <si>
+    <t>Se vende</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>blaco verde</t>
+  </si>
+  <si>
+    <t>Virctor</t>
   </si>
 </sst>
 </file>
@@ -350,6 +378,30 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla24" displayName="Tabla24" ref="A1:I20" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:I20"/>
+  <sortState ref="A2:I20">
+    <sortCondition ref="I1:I20"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Nombre" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Sticker" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Letra" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="dideño" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="4" name="width " dataCellStyle="Normal"/>
+    <tableColumn id="5" name="height" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Color" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Columna1" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Columna2" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla242" displayName="Tabla242" ref="A1:I8" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:I8"/>
+  <sortState ref="A2:I13">
+    <sortCondition ref="I1:I20"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="Nombre" dataCellStyle="Normal"/>
     <tableColumn id="2" name="Sticker" dataCellStyle="Normal"/>
@@ -630,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,51 +724,56 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2"/>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -739,15 +796,17 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -766,7 +825,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
@@ -774,17 +833,17 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>68</v>
@@ -792,33 +851,31 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
+      <c r="G6" t="s">
+        <v>12</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -829,134 +886,149 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="2">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -965,26 +1037,20 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2">
         <v>1</v>
       </c>
@@ -992,23 +1058,21 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -1017,25 +1081,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -1044,23 +1108,23 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1069,21 +1133,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1140,28 +1208,236 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C18" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10"/>
+    <hyperlink ref="C11" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+  <tableParts count="1">
+    <tablePart r:id="rId13"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C11" r:id="rId5"/>
-    <hyperlink ref="C16" r:id="rId6"/>
-    <hyperlink ref="C17" r:id="rId7"/>
-    <hyperlink ref="C19" r:id="rId8"/>
-    <hyperlink ref="C18" r:id="rId9"/>
-    <hyperlink ref="C20" r:id="rId10"/>
-    <hyperlink ref="C2" r:id="rId11"/>
-    <hyperlink ref="C3" r:id="rId12"/>
-    <hyperlink ref="C7" r:id="rId13"/>
-    <hyperlink ref="C14" r:id="rId14"/>
-    <hyperlink ref="E3" r:id="rId15"/>
-    <hyperlink ref="C9" r:id="rId16"/>
-    <hyperlink ref="C10" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>